--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H2">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.3806535365272222</v>
+        <v>45.89804352129333</v>
       </c>
       <c r="R2">
-        <v>3.425881828745</v>
+        <v>413.08239169164</v>
       </c>
       <c r="S2">
-        <v>2.607962123642049E-05</v>
+        <v>0.00146392024355249</v>
       </c>
       <c r="T2">
-        <v>2.60796212364205E-05</v>
+        <v>0.00146392024355249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H3">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>2944.598407778922</v>
+        <v>0.6107712072122222</v>
       </c>
       <c r="R3">
-        <v>26501.3856700103</v>
+        <v>5.49694086491</v>
       </c>
       <c r="S3">
-        <v>0.2017425396039878</v>
+        <v>1.948057620369283E-05</v>
       </c>
       <c r="T3">
-        <v>0.2017425396039878</v>
+        <v>1.948057620369283E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H4">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>3851.618874690825</v>
+        <v>8152.495465268295</v>
       </c>
       <c r="R4">
-        <v>34664.56987221742</v>
+        <v>73372.45918741464</v>
       </c>
       <c r="S4">
-        <v>0.2638850076513116</v>
+        <v>0.2600242239419062</v>
       </c>
       <c r="T4">
-        <v>0.2638850076513116</v>
+        <v>0.2600242239419062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H5">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>1949.132069920662</v>
+        <v>7638.799207984011</v>
       </c>
       <c r="R5">
-        <v>17542.18862928596</v>
+        <v>68749.1928718561</v>
       </c>
       <c r="S5">
-        <v>0.1335404015605563</v>
+        <v>0.2436398578037998</v>
       </c>
       <c r="T5">
-        <v>0.1335404015605563</v>
+        <v>0.2436398578037998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.321225333333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H6">
-        <v>3.963676</v>
+        <v>116.59153</v>
       </c>
       <c r="I6">
-        <v>0.03268491113714848</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J6">
-        <v>0.03268491113714848</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.02076393693022222</v>
+        <v>5370.389412777449</v>
       </c>
       <c r="R6">
-        <v>0.186875432372</v>
+        <v>48333.50471499704</v>
       </c>
       <c r="S6">
-        <v>1.422594455465917E-06</v>
+        <v>0.1712888213519944</v>
       </c>
       <c r="T6">
-        <v>1.422594455465917E-06</v>
+        <v>0.1712888213519944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>3.963676</v>
       </c>
       <c r="I7">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J7">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>160.6223238637422</v>
+        <v>1.560361833765333</v>
       </c>
       <c r="R7">
-        <v>1445.60091477368</v>
+        <v>14.043256503888</v>
       </c>
       <c r="S7">
-        <v>0.0110046773942963</v>
+        <v>4.976781362491048E-05</v>
       </c>
       <c r="T7">
-        <v>0.0110046773942963</v>
+        <v>4.976781362491048E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>210.09859023762</v>
+        <v>0.02076393693022222</v>
       </c>
       <c r="R8">
-        <v>1890.88731213858</v>
+        <v>0.186875432372</v>
       </c>
       <c r="S8">
-        <v>0.01439443254801126</v>
+        <v>6.62266738971076E-07</v>
       </c>
       <c r="T8">
-        <v>0.01439443254801127</v>
+        <v>6.62266738971076E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>106.3215010104387</v>
+        <v>277.1543577461653</v>
       </c>
       <c r="R9">
-        <v>956.8935090939481</v>
+        <v>2494.389219715488</v>
       </c>
       <c r="S9">
-        <v>0.007284378600385452</v>
+        <v>0.008839851195512732</v>
       </c>
       <c r="T9">
-        <v>0.007284378600385453</v>
+        <v>0.008839851195512732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.659826666666667</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H10">
-        <v>16.97948</v>
+        <v>3.963676</v>
       </c>
       <c r="I10">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J10">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.08894794928444445</v>
+        <v>259.690606080092</v>
       </c>
       <c r="R10">
-        <v>0.8005315435600001</v>
+        <v>2337.215454720827</v>
       </c>
       <c r="S10">
-        <v>6.094068764625169E-06</v>
+        <v>0.0082828440198043</v>
       </c>
       <c r="T10">
-        <v>6.094068764625171E-06</v>
+        <v>0.0082828440198043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.659826666666667</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H11">
-        <v>16.97948</v>
+        <v>3.963676</v>
       </c>
       <c r="I11">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J11">
-        <v>0.140014671974952</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>688.0692406740445</v>
+        <v>182.5731562668409</v>
       </c>
       <c r="R11">
-        <v>6192.623166066401</v>
+        <v>1643.158406401568</v>
       </c>
       <c r="S11">
-        <v>0.04714151704703062</v>
+        <v>0.005823179353261662</v>
       </c>
       <c r="T11">
-        <v>0.04714151704703062</v>
+        <v>0.005823179353261662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H12">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I12">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J12">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>900.0142319826002</v>
+        <v>9.802143976416</v>
       </c>
       <c r="R12">
-        <v>8100.128087843402</v>
+        <v>88.219295787744</v>
       </c>
       <c r="S12">
-        <v>0.06166245161317584</v>
+        <v>0.0003126398403155102</v>
       </c>
       <c r="T12">
-        <v>0.06166245161317584</v>
+        <v>0.0003126398403155102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H13">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I13">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J13">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>455.4569545988934</v>
+        <v>0.130438398904</v>
       </c>
       <c r="R13">
-        <v>4099.112591390041</v>
+        <v>1.173945590136</v>
       </c>
       <c r="S13">
-        <v>0.03120460924598096</v>
+        <v>4.160338830206413E-06</v>
       </c>
       <c r="T13">
-        <v>0.03120460924598096</v>
+        <v>4.160338830206413E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H14">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I14">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J14">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.01633128076133333</v>
+        <v>1741.074960647616</v>
       </c>
       <c r="R14">
-        <v>0.146981526852</v>
+        <v>15669.67464582855</v>
       </c>
       <c r="S14">
-        <v>1.118900983941746E-06</v>
+        <v>0.05553166725400716</v>
       </c>
       <c r="T14">
-        <v>1.118900983941746E-06</v>
+        <v>0.05553166725400716</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H15">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I15">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J15">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>126.3328951716533</v>
+        <v>1631.368221803496</v>
       </c>
       <c r="R15">
-        <v>1136.99605654488</v>
+        <v>14682.31399623146</v>
       </c>
       <c r="S15">
-        <v>0.008655414279965622</v>
+        <v>0.05203256569048351</v>
       </c>
       <c r="T15">
-        <v>0.008655414279965624</v>
+        <v>0.05203256569048351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.039172</v>
+        <v>8.299896</v>
       </c>
       <c r="H16">
-        <v>3.117516</v>
+        <v>24.899688</v>
       </c>
       <c r="I16">
-        <v>0.02570738209395485</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J16">
-        <v>0.02570738209395486</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>165.24703750842</v>
+        <v>1146.918826922176</v>
       </c>
       <c r="R16">
-        <v>1487.22333757578</v>
+        <v>10322.26944229958</v>
       </c>
       <c r="S16">
-        <v>0.01132152925197365</v>
+        <v>0.03658102959582397</v>
       </c>
       <c r="T16">
-        <v>0.01132152925197365</v>
+        <v>0.03658102959582397</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H17">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I17">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J17">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>83.62413591425201</v>
+        <v>0.9360755382053333</v>
       </c>
       <c r="R17">
-        <v>752.6172232282681</v>
+        <v>8.424679843847999</v>
       </c>
       <c r="S17">
-        <v>0.005729319661031643</v>
+        <v>2.985617304662109E-05</v>
       </c>
       <c r="T17">
-        <v>0.005729319661031643</v>
+        <v>2.985617304662109E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H18">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I18">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J18">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>0.05844536470411111</v>
+        <v>0.01245647837355555</v>
       </c>
       <c r="R18">
-        <v>0.5260082823369999</v>
+        <v>0.112108305362</v>
       </c>
       <c r="S18">
-        <v>4.00425276069561E-06</v>
+        <v>3.972999599854825E-07</v>
       </c>
       <c r="T18">
-        <v>4.004252760695611E-06</v>
+        <v>3.972999599854824E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H19">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I19">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J19">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>452.1122525745311</v>
+        <v>166.2674701336053</v>
       </c>
       <c r="R19">
-        <v>4069.010273170779</v>
+        <v>1496.407231202448</v>
       </c>
       <c r="S19">
-        <v>0.03097545450663488</v>
+        <v>0.005303108731855271</v>
       </c>
       <c r="T19">
-        <v>0.03097545450663488</v>
+        <v>0.00530310873185527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H20">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I20">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J20">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>591.375747842145</v>
+        <v>155.790803512982</v>
       </c>
       <c r="R20">
-        <v>5322.381730579305</v>
+        <v>1402.117231616838</v>
       </c>
       <c r="S20">
-        <v>0.04051677978046344</v>
+        <v>0.004968954960273135</v>
       </c>
       <c r="T20">
-        <v>0.04051677978046344</v>
+        <v>0.004968954960273135</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.718923666666667</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H21">
-        <v>11.156771</v>
+        <v>2.377846</v>
       </c>
       <c r="I21">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J21">
-        <v>0.09199996889567039</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>299.2688199413204</v>
+        <v>109.5273300180142</v>
       </c>
       <c r="R21">
-        <v>2693.419379471883</v>
+        <v>985.7459701621279</v>
       </c>
       <c r="S21">
-        <v>0.02050373035581138</v>
+        <v>0.003493379310628777</v>
       </c>
       <c r="T21">
-        <v>0.02050373035581137</v>
+        <v>0.003493379310628777</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H22">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I22">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J22">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.070133849879</v>
+        <v>6.177362555447999</v>
       </c>
       <c r="R22">
-        <v>0.631204648911</v>
+        <v>55.596262999032</v>
       </c>
       <c r="S22">
-        <v>4.805063043373278E-06</v>
+        <v>0.0001970272674583199</v>
       </c>
       <c r="T22">
-        <v>4.805063043373279E-06</v>
+        <v>0.0001970272674583199</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H23">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I23">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J23">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>542.53015634426</v>
+        <v>0.082202963262</v>
       </c>
       <c r="R23">
-        <v>4882.77140709834</v>
+        <v>0.739826669358</v>
       </c>
       <c r="S23">
-        <v>0.03717023389793842</v>
+        <v>2.621867355705808E-06</v>
       </c>
       <c r="T23">
-        <v>0.03717023389793842</v>
+        <v>2.621867355705808E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.462671</v>
+        <v>5.230638</v>
       </c>
       <c r="H24">
-        <v>13.388013</v>
+        <v>15.691914</v>
       </c>
       <c r="I24">
-        <v>0.1103990374611822</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J24">
-        <v>0.1103990374611822</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>709.6449501379351</v>
+        <v>1097.234573784048</v>
       </c>
       <c r="R24">
-        <v>6386.804551241416</v>
+        <v>9875.111164056432</v>
       </c>
       <c r="S24">
-        <v>0.04861972827254245</v>
+        <v>0.03499634801956138</v>
       </c>
       <c r="T24">
-        <v>0.04861972827254245</v>
+        <v>0.03499634801956139</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.230638</v>
+      </c>
+      <c r="H25">
+        <v>15.691914</v>
+      </c>
+      <c r="I25">
+        <v>0.09104074976587569</v>
+      </c>
+      <c r="J25">
+        <v>0.0910407497658757</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>1028.096811448938</v>
+      </c>
+      <c r="R25">
+        <v>9252.871303040441</v>
+      </c>
+      <c r="S25">
+        <v>0.03279119585813355</v>
+      </c>
+      <c r="T25">
+        <v>0.03279119585813356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.230638</v>
+      </c>
+      <c r="H26">
+        <v>15.691914</v>
+      </c>
+      <c r="I26">
+        <v>0.09104074976587569</v>
+      </c>
+      <c r="J26">
+        <v>0.0910407497658757</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>722.7942613997279</v>
+      </c>
+      <c r="R26">
+        <v>6505.148352597553</v>
+      </c>
+      <c r="S26">
+        <v>0.02305355675336673</v>
+      </c>
+      <c r="T26">
+        <v>0.02305355675336673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.462671</v>
-      </c>
-      <c r="H25">
-        <v>13.388013</v>
-      </c>
-      <c r="I25">
-        <v>0.1103990374611822</v>
-      </c>
-      <c r="J25">
-        <v>0.1103990374611822</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>359.1195742808611</v>
-      </c>
-      <c r="R25">
-        <v>3232.076168527749</v>
-      </c>
-      <c r="S25">
-        <v>0.02460427022765793</v>
-      </c>
-      <c r="T25">
-        <v>0.02460427022765793</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H27">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J27">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>3.478733156962666</v>
+      </c>
+      <c r="R27">
+        <v>31.30859841266399</v>
+      </c>
+      <c r="S27">
+        <v>0.0001109543566499152</v>
+      </c>
+      <c r="T27">
+        <v>0.0001109543566499152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H28">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J28">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.0462919524851111</v>
+      </c>
+      <c r="R28">
+        <v>0.416627572366</v>
+      </c>
+      <c r="S28">
+        <v>1.47648398836619E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.47648398836619E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H29">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J29">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>617.8990238191626</v>
+      </c>
+      <c r="R29">
+        <v>5561.091214372464</v>
+      </c>
+      <c r="S29">
+        <v>0.01970791824755116</v>
+      </c>
+      <c r="T29">
+        <v>0.01970791824755116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H30">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J30">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>578.9646365180259</v>
+      </c>
+      <c r="R30">
+        <v>5210.681728662234</v>
+      </c>
+      <c r="S30">
+        <v>0.01846610414464709</v>
+      </c>
+      <c r="T30">
+        <v>0.01846610414464709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.945592666666666</v>
+      </c>
+      <c r="H31">
+        <v>8.836777999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="J31">
+        <v>0.05126888247250115</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>407.0359057323004</v>
+      </c>
+      <c r="R31">
+        <v>3663.323151590704</v>
+      </c>
+      <c r="S31">
+        <v>0.01298242923966461</v>
+      </c>
+      <c r="T31">
+        <v>0.01298242923966461</v>
       </c>
     </row>
   </sheetData>
